--- a/Automationpractice/data/input.xlsx
+++ b/Automationpractice/data/input.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -54,6 +55,18 @@
   </si>
   <si>
     <t>Pinrest Button</t>
+  </si>
+  <si>
+    <t>Twiter</t>
+  </si>
+  <si>
+    <t>FaceBook</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinrest </t>
   </si>
 </sst>
 </file>
@@ -457,14 +470,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -503,7 +542,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,4 +575,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>